--- a/group_stage.xlsx
+++ b/group_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\PYTON\DSwPiR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A41416E-2BBB-49EF-A17B-83098E80B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE37C9-F261-4129-AE70-8ACA6639A35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{000082E0-29FC-4773-B1DB-A1B1A4EB733D}"/>
+    <workbookView xWindow="3990" yWindow="3645" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{000082E0-29FC-4773-B1DB-A1B1A4EB733D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1251CAFB-3427-4FEF-BED9-B58851096EF5}">
   <dimension ref="A1:O5629"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -1211,7 +1211,7 @@
         <v>8</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1263,7 +1263,7 @@
         <v>18</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -1313,7 +1313,7 @@
         <v>44</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(B5,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -1365,7 +1365,7 @@
         <v>50</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(B6,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -1417,7 +1417,7 @@
         <v>18</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>20</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(B8,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -1519,7 +1519,7 @@
         <v>19</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -1569,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>16</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(B11,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -1671,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>16</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -1773,7 +1773,7 @@
         <v>51</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -1823,7 +1823,7 @@
         <v>26</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1875,7 +1875,7 @@
         <v>51</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(B16,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -1927,7 +1927,7 @@
         <v>13</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -1977,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(B18,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2029,7 +2029,7 @@
         <v>13</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -2079,7 +2079,7 @@
         <v>30</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(B20,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2133,7 +2133,7 @@
         <v>38</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <f>VLOOKUP(B21,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2187,7 +2187,7 @@
         <v>38</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <f>VLOOKUP(B22,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2241,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <f>VLOOKUP(B23,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2295,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <f>VLOOKUP(B24,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2349,7 +2349,7 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f>VLOOKUP(B25,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2403,7 +2403,7 @@
         <v>24</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <f>VLOOKUP(B26,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2457,7 +2457,7 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <f>VLOOKUP(B27,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2511,7 +2511,7 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <f>VLOOKUP(B28,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2565,7 +2565,7 @@
         <v>11</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <f>VLOOKUP(B29,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2619,7 +2619,7 @@
         <v>7</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <f>VLOOKUP(B30,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2673,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <f>VLOOKUP(B31,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2727,7 +2727,7 @@
         <v>12</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -2779,7 +2779,7 @@
         <v>41</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <f>VLOOKUP(B33,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2831,7 +2831,7 @@
         <v>22</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <f>VLOOKUP(B34,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2883,7 +2883,7 @@
         <v>41</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <f>VLOOKUP(B35,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2935,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <f>VLOOKUP(B36,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -2989,7 +2989,7 @@
         <v>22</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -3039,7 +3039,7 @@
         <v>43</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <f>VLOOKUP(B38,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -3091,7 +3091,7 @@
         <v>21</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>4</v>
@@ -3143,7 +3143,7 @@
         <v>21</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -3195,7 +3195,7 @@
         <v>15</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -3247,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -3297,7 +3297,7 @@
         <v>15</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <f>VLOOKUP(B43,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -3351,7 +3351,7 @@
         <v>28</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <f>VLOOKUP(B44,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -3405,7 +3405,7 @@
         <v>61</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <f>VLOOKUP(B45,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -3459,7 +3459,7 @@
         <v>61</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -3512,7 +3512,7 @@
         <v>14</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <f>VLOOKUP(B47,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -3566,7 +3566,7 @@
         <v>9</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -3619,7 +3619,7 @@
         <v>14</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <f>VLOOKUP(B49,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -9224,8 +9224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71239E3B-F015-4BA4-BD79-A841B455DB2E}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9313,7 +9313,7 @@
         <v>44</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -9363,7 +9363,7 @@
         <v>8</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -9415,7 +9415,7 @@
         <v>18</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -9465,7 +9465,7 @@
         <v>44</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(B5,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -9517,7 +9517,7 @@
         <v>50</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(B6,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -9569,7 +9569,7 @@
         <v>18</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -9619,7 +9619,7 @@
         <v>20</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f>VLOOKUP(B8,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -9671,7 +9671,7 @@
         <v>19</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -9721,7 +9721,7 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -9771,7 +9771,7 @@
         <v>16</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <f>VLOOKUP(B11,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -9823,7 +9823,7 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -9875,7 +9875,7 @@
         <v>16</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -9925,7 +9925,7 @@
         <v>51</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -9975,7 +9975,7 @@
         <v>26</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -10027,7 +10027,7 @@
         <v>51</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <f>VLOOKUP(B16,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10079,7 +10079,7 @@
         <v>13</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -10129,7 +10129,7 @@
         <v>3</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <f>VLOOKUP(B18,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10181,7 +10181,7 @@
         <v>13</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -10231,7 +10231,7 @@
         <v>30</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f>VLOOKUP(B20,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10285,7 +10285,7 @@
         <v>38</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <f>VLOOKUP(B21,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10339,7 +10339,7 @@
         <v>38</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <f>VLOOKUP(B22,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10393,7 +10393,7 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <f>VLOOKUP(B23,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10447,7 +10447,7 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <f>VLOOKUP(B24,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10501,7 +10501,7 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f>VLOOKUP(B25,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10555,7 +10555,7 @@
         <v>24</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <f>VLOOKUP(B26,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10609,7 +10609,7 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <f>VLOOKUP(B27,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10663,7 +10663,7 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <f>VLOOKUP(B28,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10717,7 +10717,7 @@
         <v>11</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <f>VLOOKUP(B29,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10771,7 +10771,7 @@
         <v>7</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <f>VLOOKUP(B30,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10825,7 +10825,7 @@
         <v>11</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <f>VLOOKUP(B31,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10879,7 +10879,7 @@
         <v>12</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -10931,7 +10931,7 @@
         <v>41</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <f>VLOOKUP(B33,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -10983,7 +10983,7 @@
         <v>22</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <f>VLOOKUP(B34,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -11035,7 +11035,7 @@
         <v>41</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <f>VLOOKUP(B35,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -11087,7 +11087,7 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <f>VLOOKUP(B36,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -11141,7 +11141,7 @@
         <v>22</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -11191,7 +11191,7 @@
         <v>43</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <f>VLOOKUP(B38,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -11243,7 +11243,7 @@
         <v>21</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>4</v>
@@ -11295,7 +11295,7 @@
         <v>21</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -11347,7 +11347,7 @@
         <v>15</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -11399,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -11449,7 +11449,7 @@
         <v>15</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <f>VLOOKUP(B43,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -11503,7 +11503,7 @@
         <v>28</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <f>VLOOKUP(B44,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -11557,7 +11557,7 @@
         <v>61</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <f>VLOOKUP(B45,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -11611,7 +11611,7 @@
         <v>61</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -11664,7 +11664,7 @@
         <v>14</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <f>VLOOKUP(B47,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -11718,7 +11718,7 @@
         <v>9</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -11771,7 +11771,7 @@
         <v>14</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <f>VLOOKUP(B49,[1]Sheet1!$B$1:$C$36,2,FALSE)</f>
@@ -11811,8 +11811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7166BFB4-6FA5-4DE3-B89D-EE2D1193254A}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11916,7 +11916,7 @@
         <v>-24.5</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -11960,7 +11960,7 @@
         <v>-110.12999999999988</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -12004,7 +12004,7 @@
         <v>-144.49</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -12048,7 +12048,7 @@
         <v>230.11999999999989</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -12092,7 +12092,7 @@
         <v>254.61999999999989</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -12136,7 +12136,7 @@
         <v>-119.99000000000001</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -12180,7 +12180,7 @@
         <v>163.86000000000013</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -12224,7 +12224,7 @@
         <v>57.660000000000082</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -12268,7 +12268,7 @@
         <v>5.2100000000000364</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -12312,7 +12312,7 @@
         <v>100.99000000000001</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -12356,7 +12356,7 @@
         <v>-158.65000000000009</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -12400,7 +12400,7 @@
         <v>-62.870000000000118</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -12444,7 +12444,7 @@
         <v>336.10000000000014</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -12488,7 +12488,7 @@
         <v>96.300000000000182</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -12532,7 +12532,7 @@
         <v>110.80999999999995</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -12576,7 +12576,7 @@
         <v>128.99</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -12620,7 +12620,7 @@
         <v>-225.29000000000019</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -12664,7 +12664,7 @@
         <v>-207.11000000000013</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -12708,7 +12708,7 @@
         <v>159.02999999999997</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -12752,7 +12752,7 @@
         <v>271.05999999999995</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -12796,7 +12796,7 @@
         <v>18.819999999999936</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -12840,7 +12840,7 @@
         <v>93.210000000000036</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -12884,7 +12884,7 @@
         <v>-252.24</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -12928,7 +12928,7 @@
         <v>-177.84999999999991</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -12972,7 +12972,7 @@
         <v>90.670000000000073</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -13016,7 +13016,7 @@
         <v>211.63000000000011</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -13060,7 +13060,7 @@
         <v>55.950000000000045</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -13104,7 +13104,7 @@
         <v>65.009999999999991</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -13148,7 +13148,7 @@
         <v>-155.68000000000006</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -13192,7 +13192,7 @@
         <v>-146.62000000000012</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -13236,7 +13236,7 @@
         <v>-82.1400000000001</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -13280,7 +13280,7 @@
         <v>341.71000000000004</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -13324,7 +13324,7 @@
         <v>253.21000000000004</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -13368,7 +13368,7 @@
         <v>170.6400000000001</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -13412,7 +13412,7 @@
         <v>-171.06999999999994</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -13456,7 +13456,7 @@
         <v>-88.5</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -13500,7 +13500,7 @@
         <v>164.48000000000002</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -13544,7 +13544,7 @@
         <v>277.68000000000006</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -13588,7 +13588,7 @@
         <v>-92.179999999999836</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -13632,7 +13632,7 @@
         <v>205.37999999999988</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -13676,7 +13676,7 @@
         <v>-369.8599999999999</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -13720,7 +13720,7 @@
         <v>-72.300000000000182</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -13764,7 +13764,7 @@
         <v>108.41000000000008</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -13808,7 +13808,7 @@
         <v>283.55999999999995</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -13852,7 +13852,7 @@
         <v>137.29999999999995</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -13896,7 +13896,7 @@
         <v>37.849999999999909</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -13940,7 +13940,7 @@
         <v>-146.26</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -13984,7 +13984,7 @@
         <v>-245.71000000000004</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
